--- a/Mifos Automation Excels/Loan Product/3135-RBI-EI-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-1-ACC-CASH-DISB-FEE-FLAT-ONTIME-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/3135-RBI-EI-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-1-ACC-CASH-DISB-FEE-FLAT-ONTIME-Loanproduct.xlsx
@@ -182,9 +182,6 @@
     <t>abc</t>
   </si>
   <si>
-    <t>RBI (India)</t>
-  </si>
-  <si>
     <t>charges</t>
   </si>
   <si>
@@ -231,6 +228,9 @@
   </si>
   <si>
     <t>Fees Receivable</t>
+  </si>
+  <si>
+    <t>Overdue/Due Fee/Int,Principal</t>
   </si>
 </sst>
 </file>
@@ -612,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -627,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -664,10 +664,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -755,7 +755,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -763,7 +763,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -840,7 +840,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" s="8">
         <v>10000</v>
@@ -848,15 +848,15 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>17</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>17</v>
@@ -888,18 +888,18 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -912,10 +912,10 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -987,10 +987,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
